--- a/INTLINE/data/134/DEUSTATIS/old/Consumer price index years.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/old/Consumer price index years.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Consumer price index (incl. rates of change):
 Germany, years</t>
@@ -135,10 +135,13 @@
     <t>2020</t>
   </si>
   <si>
+    <t>2021</t>
+  </si>
+  <si>
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:33:20</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-03-31 / 11:33:24</t>
   </si>
 </sst>
 </file>
@@ -1203,13 +1206,24 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="11">
+      <c r="A36" t="s" s="13">
         <v>39</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="12">
+      <c r="B36" t="n" s="10">
+        <v>109.1</v>
+      </c>
+      <c r="C36" t="n" s="10">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="11">
         <v>40</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="12">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1222,7 +1236,7 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup usePrinterDefaults="false"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:33:23&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 31.03.22 / 11:33:28&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>